--- a/PRO1/step_3/time_series_example/res_line/i_ka.xlsx
+++ b/PRO1/step_3/time_series_example/res_line/i_ka.xlsx
@@ -424,49 +424,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0470688029766519</v>
+        <v>0.0355043521817418</v>
       </c>
       <c r="C2">
-        <v>0.04861226950991802</v>
+        <v>0.03593204739604658</v>
       </c>
       <c r="D2">
-        <v>0.01946438027107947</v>
+        <v>0.01404634906632487</v>
       </c>
       <c r="E2">
-        <v>0.01453947013548542</v>
+        <v>0.01050534968569431</v>
       </c>
       <c r="F2">
-        <v>0.006434038038708075</v>
+        <v>0.004547795184677009</v>
       </c>
       <c r="G2">
-        <v>0.0009107642587460858</v>
+        <v>0.0008211338539075167</v>
       </c>
       <c r="H2">
-        <v>0.0166671818141713</v>
+        <v>0.01243462735212453</v>
       </c>
       <c r="I2">
-        <v>0.01011746664050095</v>
+        <v>0.007289458089890764</v>
       </c>
       <c r="J2">
-        <v>0.00376741119715305</v>
+        <v>0.002751634426830648</v>
       </c>
       <c r="K2">
-        <v>0.02385999797772047</v>
+        <v>0.01777214181568774</v>
       </c>
       <c r="L2">
-        <v>0.006525696777652345</v>
+        <v>0.005070711050116914</v>
       </c>
       <c r="M2">
-        <v>0.006192613283914839</v>
+        <v>0.004755254709870565</v>
       </c>
       <c r="N2">
-        <v>0.0001276785702762574</v>
+        <v>0.0001326257953967052</v>
       </c>
       <c r="O2">
-        <v>0.0002603704350470188</v>
+        <v>0.0002705650056210554</v>
       </c>
       <c r="P2">
-        <v>7.316033846602211E-05</v>
+        <v>7.476893230069664E-05</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,49 +474,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04502212986450695</v>
+        <v>0.03411643516497479</v>
       </c>
       <c r="C3">
-        <v>0.04656182948714586</v>
+        <v>0.03452875440131051</v>
       </c>
       <c r="D3">
-        <v>0.01865457579148556</v>
+        <v>0.01350246922671503</v>
       </c>
       <c r="E3">
-        <v>0.01393413499831281</v>
+        <v>0.01009896875120916</v>
       </c>
       <c r="F3">
-        <v>0.006173915646520277</v>
+        <v>0.004372431914148382</v>
       </c>
       <c r="G3">
-        <v>0.0008744684187450018</v>
+        <v>0.0008139439765755657</v>
       </c>
       <c r="H3">
-        <v>0.01597872883807531</v>
+        <v>0.01194863059215038</v>
       </c>
       <c r="I3">
-        <v>0.009701883089617683</v>
+        <v>0.007008077511879002</v>
       </c>
       <c r="J3">
-        <v>0.003610422559016211</v>
+        <v>0.002646461632461725</v>
       </c>
       <c r="K3">
-        <v>0.02285635773656381</v>
+        <v>0.01707513167305976</v>
       </c>
       <c r="L3">
-        <v>0.006270190600273668</v>
+        <v>0.004878578457714776</v>
       </c>
       <c r="M3">
-        <v>0.005952221201292445</v>
+        <v>0.00457496898954604</v>
       </c>
       <c r="N3">
-        <v>0.0001280143573541377</v>
+        <v>0.0001327632558598599</v>
       </c>
       <c r="O3">
-        <v>0.0002610693311944846</v>
+        <v>0.0002708548201863165</v>
       </c>
       <c r="P3">
-        <v>7.324964184701308E-05</v>
+        <v>7.479586921936778E-05</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -524,49 +524,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04291925141040254</v>
+        <v>0.03268703837887393</v>
       </c>
       <c r="C4">
-        <v>0.04445433705276621</v>
+        <v>0.03308208930069204</v>
       </c>
       <c r="D4">
-        <v>0.01782212199372088</v>
+        <v>0.01294161651126932</v>
       </c>
       <c r="E4">
-        <v>0.0133118868915785</v>
+        <v>0.00967991667339149</v>
       </c>
       <c r="F4">
-        <v>0.00590650678007906</v>
+        <v>0.004191538704781189</v>
       </c>
       <c r="G4">
-        <v>0.0008371563699342732</v>
+        <v>0.0008075120882734732</v>
       </c>
       <c r="H4">
-        <v>0.01527109692745534</v>
+        <v>0.01144742565820747</v>
       </c>
       <c r="I4">
-        <v>0.009274724635441373</v>
+        <v>0.00671788489937232</v>
       </c>
       <c r="J4">
-        <v>0.003449078239822833</v>
+        <v>0.00253802636563371</v>
       </c>
       <c r="K4">
-        <v>0.02182484792387</v>
+        <v>0.01635653784408596</v>
       </c>
       <c r="L4">
-        <v>0.006006722071307754</v>
+        <v>0.004680106795690076</v>
       </c>
       <c r="M4">
-        <v>0.005704333874748135</v>
+        <v>0.00438872593466496</v>
       </c>
       <c r="N4">
-        <v>0.0001283597303716638</v>
+        <v>0.0001329048486174654</v>
       </c>
       <c r="O4">
-        <v>0.0002617881681936416</v>
+        <v>0.000271153359176425</v>
       </c>
       <c r="P4">
-        <v>7.334166525906072E-05</v>
+        <v>7.48236213506826E-05</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -574,49 +574,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.04290872444374129</v>
+        <v>0.03267987457647352</v>
       </c>
       <c r="C5">
-        <v>0.04444378490378734</v>
+        <v>0.03307483495707963</v>
       </c>
       <c r="D5">
-        <v>0.01781795360616988</v>
+        <v>0.01293880364734776</v>
       </c>
       <c r="E5">
-        <v>0.01330877112313782</v>
+        <v>0.009677815015933854</v>
       </c>
       <c r="F5">
-        <v>0.005905167735028748</v>
+        <v>0.004190631304166157</v>
       </c>
       <c r="G5">
-        <v>0.0008369695317006655</v>
+        <v>0.0008074823860026282</v>
       </c>
       <c r="H5">
-        <v>0.0152675537537049</v>
+        <v>0.01144491182316586</v>
       </c>
       <c r="I5">
-        <v>0.009272585820656347</v>
+        <v>0.006716429393520017</v>
       </c>
       <c r="J5">
-        <v>0.003448270423280741</v>
+        <v>0.002537482578307925</v>
       </c>
       <c r="K5">
-        <v>0.02181968332281541</v>
+        <v>0.01635293431209988</v>
       </c>
       <c r="L5">
-        <v>0.006005400706056984</v>
+        <v>0.004679110507770502</v>
       </c>
       <c r="M5">
-        <v>0.005703090642317755</v>
+        <v>0.004387791006374493</v>
       </c>
       <c r="N5">
-        <v>0.0001283614602860131</v>
+        <v>0.0001329055584013269</v>
       </c>
       <c r="O5">
-        <v>0.0002617917686895593</v>
+        <v>0.0002711548556429759</v>
       </c>
       <c r="P5">
-        <v>7.334212662117203E-05</v>
+        <v>7.482376047368589E-05</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -624,49 +624,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04156448294181461</v>
+        <v>0.03176445909832985</v>
       </c>
       <c r="C6">
-        <v>0.04309614204107119</v>
+        <v>0.03214749768936931</v>
       </c>
       <c r="D6">
-        <v>0.01728557031433103</v>
+        <v>0.01257919029890253</v>
       </c>
       <c r="E6">
-        <v>0.01291083130535903</v>
+        <v>0.009409129059544869</v>
       </c>
       <c r="F6">
-        <v>0.00573414249145527</v>
+        <v>0.004074609511239688</v>
       </c>
       <c r="G6">
-        <v>0.0008131063042602901</v>
+        <v>0.0008038978758288921</v>
       </c>
       <c r="H6">
-        <v>0.01481503677214479</v>
+        <v>0.01112351621502697</v>
       </c>
       <c r="I6">
-        <v>0.00899942694532288</v>
+        <v>0.006530340208430664</v>
       </c>
       <c r="J6">
-        <v>0.00334510418061117</v>
+        <v>0.002467965983584256</v>
       </c>
       <c r="K6">
-        <v>0.02116010872742654</v>
+        <v>0.0158922765418416</v>
       </c>
       <c r="L6">
-        <v>0.005836467181403092</v>
+        <v>0.004551664189516283</v>
       </c>
       <c r="M6">
-        <v>0.005544145219680328</v>
+        <v>0.004268191622590774</v>
       </c>
       <c r="N6">
-        <v>0.0001285824439210178</v>
+        <v>0.0001329962646803075</v>
       </c>
       <c r="O6">
-        <v>0.0002622517038936805</v>
+        <v>0.0002713461103783841</v>
       </c>
       <c r="P6">
-        <v>7.340109742394562E-05</v>
+        <v>7.484154163790811E-05</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -674,49 +674,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04261322081254858</v>
+        <v>0.03247874839049302</v>
       </c>
       <c r="C7">
-        <v>0.04414756535734592</v>
+        <v>0.03287114985501046</v>
       </c>
       <c r="D7">
-        <v>0.01770093743731115</v>
+        <v>0.01285982309941792</v>
       </c>
       <c r="E7">
-        <v>0.01322130456204788</v>
+        <v>0.009618804090149124</v>
       </c>
       <c r="F7">
-        <v>0.005867577515878274</v>
+        <v>0.004165152311131387</v>
       </c>
       <c r="G7">
-        <v>0.0008317245369967347</v>
+        <v>0.0008066589085220662</v>
       </c>
       <c r="H7">
-        <v>0.01516808947577176</v>
+        <v>0.01137432692130294</v>
       </c>
       <c r="I7">
-        <v>0.009212544838293667</v>
+        <v>0.006675560800415096</v>
       </c>
       <c r="J7">
-        <v>0.003425593529136021</v>
+        <v>0.002522214155335788</v>
       </c>
       <c r="K7">
-        <v>0.02167470331810192</v>
+        <v>0.0162517550146712</v>
       </c>
       <c r="L7">
-        <v>0.005968298649213703</v>
+        <v>0.00465113258583812</v>
       </c>
       <c r="M7">
-        <v>0.005668182395469771</v>
+        <v>0.004361536086535782</v>
       </c>
       <c r="N7">
-        <v>0.0001284100247390299</v>
+        <v>0.0001329254851962756</v>
       </c>
       <c r="O7">
-        <v>0.0002618928466817659</v>
+        <v>0.0002711968710244252</v>
       </c>
       <c r="P7">
-        <v>7.335508033918334E-05</v>
+        <v>7.482766655007626E-05</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -724,49 +724,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04515187028574545</v>
+        <v>0.0342045145799881</v>
       </c>
       <c r="C8">
-        <v>0.04669182880508156</v>
+        <v>0.03461784845565195</v>
       </c>
       <c r="D8">
-        <v>0.01870592117879914</v>
+        <v>0.01353700420158547</v>
       </c>
       <c r="E8">
-        <v>0.01397251557711197</v>
+        <v>0.01012477259930289</v>
       </c>
       <c r="F8">
-        <v>0.006190408899434004</v>
+        <v>0.004383568581823606</v>
       </c>
       <c r="G8">
-        <v>0.0008767697685215466</v>
+        <v>0.0008143728844170349</v>
       </c>
       <c r="H8">
-        <v>0.0160223777484214</v>
+        <v>0.01197949121445045</v>
       </c>
       <c r="I8">
-        <v>0.009728231604653324</v>
+        <v>0.007025945260201521</v>
       </c>
       <c r="J8">
-        <v>0.003620375377535209</v>
+        <v>0.00265313928666514</v>
       </c>
       <c r="K8">
-        <v>0.02291998757367103</v>
+        <v>0.01711938540861845</v>
       </c>
       <c r="L8">
-        <v>0.006286414147884506</v>
+        <v>0.004890788055159365</v>
       </c>
       <c r="M8">
-        <v>0.005967485172716993</v>
+        <v>0.00458642599147998</v>
       </c>
       <c r="N8">
-        <v>0.0001279930613921082</v>
+        <v>0.0001327545320030404</v>
       </c>
       <c r="O8">
-        <v>0.0002610250067948702</v>
+        <v>0.0002708364269145949</v>
       </c>
       <c r="P8">
-        <v>7.324397325391841E-05</v>
+        <v>7.479415952258343E-05</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -774,49 +774,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05222296916040779</v>
+        <v>0.03917451800653793</v>
       </c>
       <c r="C9">
-        <v>0.05377333943179829</v>
+        <v>0.03963375873432974</v>
       </c>
       <c r="D9">
-        <v>0.02150226425185849</v>
+        <v>0.01540842882886008</v>
       </c>
       <c r="E9">
-        <v>0.01606287690656408</v>
+        <v>0.01152312099636318</v>
       </c>
       <c r="F9">
-        <v>0.007088613629130513</v>
+        <v>0.004986771444049641</v>
       </c>
       <c r="G9">
-        <v>0.001002102063235913</v>
+        <v>0.0008430488135422222</v>
       </c>
       <c r="H9">
-        <v>0.01840003466230285</v>
+        <v>0.01383149738389258</v>
       </c>
       <c r="I9">
-        <v>0.01116351706219636</v>
+        <v>0.008179701794821357</v>
       </c>
       <c r="J9">
-        <v>0.004162621294464863</v>
+        <v>0.003202829581570478</v>
       </c>
       <c r="K9">
-        <v>0.02638648016412974</v>
+        <v>0.01970201917222267</v>
       </c>
       <c r="L9">
-        <v>0.0071652090520691</v>
+        <v>0.005550122392796368</v>
       </c>
       <c r="M9">
-        <v>0.006794283305413061</v>
+        <v>0.005205074074589848</v>
       </c>
       <c r="N9">
-        <v>0.0001268343753410983</v>
+        <v>0.0001322724546387133</v>
       </c>
       <c r="O9">
-        <v>0.0002586133080594257</v>
+        <v>0.0002698146003166572</v>
       </c>
       <c r="P9">
-        <v>7.293655487291048E-05</v>
+        <v>7.470141286989558E-05</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -824,49 +824,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07780464032166418</v>
+        <v>0.0558699019563081</v>
       </c>
       <c r="C10">
-        <v>0.0793581217827873</v>
+        <v>0.05643241576920956</v>
       </c>
       <c r="D10">
-        <v>0.03159766647280813</v>
+        <v>0.02198068994811575</v>
       </c>
       <c r="E10">
-        <v>0.0236111070201517</v>
+        <v>0.01643469920335409</v>
       </c>
       <c r="F10">
-        <v>0.0103316681000762</v>
+        <v>0.007102654910672132</v>
       </c>
       <c r="G10">
-        <v>0.001454697180345173</v>
+        <v>0.001136764856279413</v>
       </c>
       <c r="H10">
-        <v>0.02699312431422504</v>
+        <v>0.01952394353201788</v>
       </c>
       <c r="I10">
-        <v>0.01635143197430845</v>
+        <v>0.01139372386508225</v>
       </c>
       <c r="J10">
-        <v>0.006123450730150037</v>
+        <v>0.004287724571330762</v>
       </c>
       <c r="K10">
-        <v>0.03891773959191929</v>
+        <v>0.02795355583224856</v>
       </c>
       <c r="L10">
-        <v>0.01025874016093219</v>
+        <v>0.00783875009210244</v>
       </c>
       <c r="M10">
-        <v>0.009704641459881869</v>
+        <v>0.007352069516962647</v>
       </c>
       <c r="N10">
-        <v>0.0001226697405589195</v>
+        <v>0.0001306014402061536</v>
       </c>
       <c r="O10">
-        <v>0.0002499438603158193</v>
+        <v>0.0002662982271468525</v>
       </c>
       <c r="P10">
-        <v>7.184869954685919E-05</v>
+        <v>7.437303420958299E-05</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -874,49 +874,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1018465775200723</v>
+        <v>0.07146487212435351</v>
       </c>
       <c r="C11">
-        <v>0.1033816974592176</v>
+        <v>0.07207272844709416</v>
       </c>
       <c r="D11">
-        <v>0.04106893627525104</v>
+        <v>0.02807181212629702</v>
       </c>
       <c r="E11">
-        <v>0.0306949375364536</v>
+        <v>0.02103561170456461</v>
       </c>
       <c r="F11">
-        <v>0.01337595348961717</v>
+        <v>0.009001103820654813</v>
       </c>
       <c r="G11">
-        <v>0.001879679834364904</v>
+        <v>0.001439481207237667</v>
       </c>
       <c r="H11">
-        <v>0.03507045586832182</v>
+        <v>0.02479898090137732</v>
       </c>
       <c r="I11">
-        <v>0.02122930190920828</v>
+        <v>0.01444769146598648</v>
       </c>
       <c r="J11">
-        <v>0.007967718446518572</v>
+        <v>0.005431938359478953</v>
       </c>
       <c r="K11">
-        <v>0.05069658168614331</v>
+        <v>0.03553689172245636</v>
       </c>
       <c r="L11">
-        <v>0.01304396818014559</v>
+        <v>0.009855066471986296</v>
       </c>
       <c r="M11">
-        <v>0.01232494506931573</v>
+        <v>0.009243385297845557</v>
       </c>
       <c r="N11">
-        <v>0.0001187910705793336</v>
+        <v>0.0001290526818916325</v>
       </c>
       <c r="O11">
-        <v>0.00024186786335785</v>
+        <v>0.0002630392420515937</v>
       </c>
       <c r="P11">
-        <v>7.086173727173732E-05</v>
+        <v>7.407541740780829E-05</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -924,49 +924,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1445630803523864</v>
+        <v>0.09653423249162962</v>
       </c>
       <c r="C12">
-        <v>0.1460482773984565</v>
+        <v>0.09718808928184722</v>
       </c>
       <c r="D12">
-        <v>0.0578726622380549</v>
+        <v>0.03765256471020382</v>
       </c>
       <c r="E12">
-        <v>0.04326878249441753</v>
+        <v>0.02814995837169201</v>
       </c>
       <c r="F12">
-        <v>0.01878330259306327</v>
+        <v>0.01214449128490599</v>
       </c>
       <c r="G12">
-        <v>0.00263492205109819</v>
+        <v>0.001940932098081402</v>
       </c>
       <c r="H12">
-        <v>0.04944478686993653</v>
+        <v>0.03354428615160624</v>
       </c>
       <c r="I12">
-        <v>0.02991396395129128</v>
+        <v>0.01951136545776842</v>
       </c>
       <c r="J12">
-        <v>0.01125206774219012</v>
+        <v>0.007330031979893873</v>
       </c>
       <c r="K12">
-        <v>0.07165085857583847</v>
+        <v>0.04811266461682195</v>
       </c>
       <c r="L12">
-        <v>0.01768656120232335</v>
+        <v>0.01311950209346025</v>
       </c>
       <c r="M12">
-        <v>0.01669283008149553</v>
+        <v>0.01230534741374626</v>
       </c>
       <c r="N12">
-        <v>0.0001119903325521978</v>
+        <v>0.0001264834192341476</v>
       </c>
       <c r="O12">
-        <v>0.0002277024144039802</v>
+        <v>0.0002576255905847754</v>
       </c>
       <c r="P12">
-        <v>6.920108477659578E-05</v>
+        <v>7.357709801405601E-05</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -974,49 +974,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1823815370066526</v>
+        <v>0.1168816114831948</v>
       </c>
       <c r="C13">
-        <v>0.183815661061886</v>
+        <v>0.1175556503881366</v>
       </c>
       <c r="D13">
-        <v>0.07272678500016121</v>
+        <v>0.04570842685831578</v>
       </c>
       <c r="E13">
-        <v>0.0543908734554811</v>
+        <v>0.03422331765062431</v>
       </c>
       <c r="F13">
-        <v>0.02357152233654167</v>
+        <v>0.01467350092919057</v>
       </c>
       <c r="G13">
-        <v>0.003304174516562113</v>
+        <v>0.002344527858535346</v>
       </c>
       <c r="H13">
-        <v>0.06220604515906718</v>
+        <v>0.04058852589469504</v>
       </c>
       <c r="I13">
-        <v>0.03762921952666461</v>
+        <v>0.02359076788575191</v>
       </c>
       <c r="J13">
-        <v>0.01417042650923559</v>
+        <v>0.008859613778130786</v>
       </c>
       <c r="K13">
-        <v>0.09024237972408328</v>
+        <v>0.058242654919899</v>
       </c>
       <c r="L13">
-        <v>0.02144694691186389</v>
+        <v>0.01567185429557977</v>
       </c>
       <c r="M13">
-        <v>0.02023097297496449</v>
+        <v>0.01469941868811419</v>
       </c>
       <c r="N13">
-        <v>0.0001060820902404589</v>
+        <v>0.0001243677002359533</v>
       </c>
       <c r="O13">
-        <v>0.000215389213778999</v>
+        <v>0.0002531752281753928</v>
       </c>
       <c r="P13">
-        <v>6.784216538196307E-05</v>
+        <v>7.317334256835747E-05</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1861137711589816</v>
+        <v>0.1187816672766688</v>
       </c>
       <c r="C14">
-        <v>0.1875427080224551</v>
+        <v>0.1194571581730467</v>
       </c>
       <c r="D14">
-        <v>0.07419152549776467</v>
+        <v>0.0464421992876401</v>
       </c>
       <c r="E14">
-        <v>0.055488005350864</v>
+        <v>0.03477211955203222</v>
       </c>
       <c r="F14">
-        <v>0.0240441596614374</v>
+        <v>0.01490956965885611</v>
       </c>
       <c r="G14">
-        <v>0.00337026368601483</v>
+        <v>0.002382212540824415</v>
       </c>
       <c r="H14">
-        <v>0.06346755518815979</v>
+        <v>0.04124650075414251</v>
       </c>
       <c r="I14">
-        <v>0.03839220732950214</v>
+        <v>0.02397184321729055</v>
       </c>
       <c r="J14">
-        <v>0.01445906229778633</v>
+        <v>0.009002512417622345</v>
       </c>
       <c r="K14">
-        <v>0.09207955316968565</v>
+        <v>0.05918882123318583</v>
       </c>
       <c r="L14">
-        <v>0.0217992683582789</v>
+        <v>0.01590665760038785</v>
       </c>
       <c r="M14">
-        <v>0.02056248574319415</v>
+        <v>0.01491966399643905</v>
       </c>
       <c r="N14">
-        <v>0.0001055054861789765</v>
+        <v>0.0001241686361138379</v>
       </c>
       <c r="O14">
-        <v>0.0002141871319510236</v>
+        <v>0.0002527563219356735</v>
       </c>
       <c r="P14">
-        <v>6.771422528767577E-05</v>
+        <v>7.313557796480405E-05</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1830721190082468</v>
+        <v>0.1172346716008604</v>
       </c>
       <c r="C15">
-        <v>0.1845052845252577</v>
+        <v>0.117908984907477</v>
       </c>
       <c r="D15">
-        <v>0.07299782512573176</v>
+        <v>0.0458447781304264</v>
       </c>
       <c r="E15">
-        <v>0.05459388444151395</v>
+        <v>0.03432529650267945</v>
       </c>
       <c r="F15">
-        <v>0.02365897375323873</v>
+        <v>0.01471736717370914</v>
       </c>
       <c r="G15">
-        <v>0.003316402492842178</v>
+        <v>0.002351530293991187</v>
       </c>
       <c r="H15">
-        <v>0.06243943387664485</v>
+        <v>0.04071078542745976</v>
       </c>
       <c r="I15">
-        <v>0.03777037365637542</v>
+        <v>0.02366157574252285</v>
       </c>
       <c r="J15">
-        <v>0.01422382425489443</v>
+        <v>0.008886165714940275</v>
       </c>
       <c r="K15">
-        <v>0.0905822803676867</v>
+        <v>0.05841846450382335</v>
       </c>
       <c r="L15">
-        <v>0.02151239792115143</v>
+        <v>0.01571553077836657</v>
       </c>
       <c r="M15">
-        <v>0.02029255815301386</v>
+        <v>0.01474038714796299</v>
       </c>
       <c r="N15">
-        <v>0.0001059753078250326</v>
+        <v>0.0001243307316577664</v>
       </c>
       <c r="O15">
-        <v>0.0002151666036969161</v>
+        <v>0.0002530974312160768</v>
       </c>
       <c r="P15">
-        <v>6.781840578727269E-05</v>
+        <v>7.316632577135135E-05</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1829811263598532</v>
+        <v>0.1169832175979589</v>
       </c>
       <c r="C16">
-        <v>0.1844144182208656</v>
+        <v>0.1176584878676061</v>
       </c>
       <c r="D16">
-        <v>0.07296211269893194</v>
+        <v>0.04562578550637295</v>
       </c>
       <c r="E16">
-        <v>0.05456713543334532</v>
+        <v>0.03411187620455267</v>
       </c>
       <c r="F16">
-        <v>0.02364745092081896</v>
+        <v>0.01471016560560187</v>
       </c>
       <c r="G16">
-        <v>0.003314791291533233</v>
+        <v>0.00235040658829215</v>
       </c>
       <c r="H16">
-        <v>0.06240868127198122</v>
+        <v>0.04069114165301765</v>
       </c>
       <c r="I16">
-        <v>0.03775177428816499</v>
+        <v>0.02365020468856296</v>
       </c>
       <c r="J16">
-        <v>0.01421678821725323</v>
+        <v>0.008881902666753887</v>
       </c>
       <c r="K16">
-        <v>0.09053749340829517</v>
+        <v>0.05839020804200847</v>
       </c>
       <c r="L16">
-        <v>0.0215037806562301</v>
+        <v>0.01570978182420064</v>
       </c>
       <c r="M16">
-        <v>0.02028444985767277</v>
+        <v>0.01473499463844413</v>
       </c>
       <c r="N16">
-        <v>0.0001059893753517603</v>
+        <v>0.0001243476083532456</v>
       </c>
       <c r="O16">
-        <v>0.0002151959305081709</v>
+        <v>0.0002531294902582335</v>
       </c>
       <c r="P16">
-        <v>6.782153417778637E-05</v>
+        <v>7.316724957021527E-05</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1825863796819383</v>
+        <v>0.1169880821047896</v>
       </c>
       <c r="C17">
-        <v>0.1840202194812659</v>
+        <v>0.117662226073835</v>
       </c>
       <c r="D17">
-        <v>0.0728071825871945</v>
+        <v>0.04555189786926121</v>
       </c>
       <c r="E17">
-        <v>0.05445109155331427</v>
+        <v>0.03405662260483797</v>
       </c>
       <c r="F17">
-        <v>0.02359746239068505</v>
+        <v>0.01468638364404949</v>
       </c>
       <c r="G17">
-        <v>0.003307801589729483</v>
+        <v>0.00234663893999454</v>
       </c>
       <c r="H17">
-        <v>0.06227527224014894</v>
+        <v>0.04081423595046799</v>
       </c>
       <c r="I17">
-        <v>0.03767108805233826</v>
+        <v>0.023808242811354</v>
       </c>
       <c r="J17">
-        <v>0.01418626509815171</v>
+        <v>0.009065423755205956</v>
       </c>
       <c r="K17">
-        <v>0.09034320052743139</v>
+        <v>0.05848754165627226</v>
       </c>
       <c r="L17">
-        <v>0.02146637348652796</v>
+        <v>0.01568482065897567</v>
       </c>
       <c r="M17">
-        <v>0.02024925211975619</v>
+        <v>0.01471158111079152</v>
       </c>
       <c r="N17">
-        <v>0.0001060504117647223</v>
+        <v>0.0001243578904424363</v>
       </c>
       <c r="O17">
-        <v>0.0002153231736726783</v>
+        <v>0.0002531452428883746</v>
       </c>
       <c r="P17">
-        <v>6.783511365113439E-05</v>
+        <v>7.317125984926989E-05</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.146177863324927</v>
+        <v>0.09724374463215006</v>
       </c>
       <c r="C18">
-        <v>0.1476609607743393</v>
+        <v>0.09789989668819124</v>
       </c>
       <c r="D18">
-        <v>0.05850734383379423</v>
+        <v>0.03800067681626379</v>
       </c>
       <c r="E18">
-        <v>0.04374385947205988</v>
+        <v>0.02841023310836983</v>
       </c>
       <c r="F18">
-        <v>0.01898772182387468</v>
+        <v>0.01225649449768631</v>
       </c>
       <c r="G18">
-        <v>0.00266348386430252</v>
+        <v>0.001958803861544212</v>
       </c>
       <c r="H18">
-        <v>0.04998892662717862</v>
+        <v>0.03385609310464304</v>
       </c>
       <c r="I18">
-        <v>0.03024283625593206</v>
+        <v>0.01969192871452205</v>
       </c>
       <c r="J18">
-        <v>0.01137645523874562</v>
+        <v>0.007397729130307191</v>
       </c>
       <c r="K18">
-        <v>0.07244383992777231</v>
+        <v>0.0485610587746066</v>
       </c>
       <c r="L18">
-        <v>0.01785403215802793</v>
+        <v>0.0132349481683931</v>
       </c>
       <c r="M18">
-        <v>0.01685039784026867</v>
+        <v>0.01241363320927986</v>
       </c>
       <c r="N18">
-        <v>0.0001117357556614274</v>
+        <v>0.0001263996507443991</v>
       </c>
       <c r="O18">
-        <v>0.0002271719992893857</v>
+        <v>0.0002574486598083425</v>
       </c>
       <c r="P18">
-        <v>6.914082450231235E-05</v>
+        <v>7.355910306088256E-05</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.09002475104856637</v>
+        <v>0.06426503937392283</v>
       </c>
       <c r="C19">
-        <v>0.09157035522030432</v>
+        <v>0.0648507648471747</v>
       </c>
       <c r="D19">
-        <v>0.03641322080031306</v>
+        <v>0.02501782976874354</v>
       </c>
       <c r="E19">
-        <v>0.02721251591518309</v>
+        <v>0.01870471686279846</v>
       </c>
       <c r="F19">
-        <v>0.01187923029414804</v>
+        <v>0.008079837577798689</v>
       </c>
       <c r="G19">
-        <v>0.001670720026268242</v>
+        <v>0.001292607828754158</v>
       </c>
       <c r="H19">
-        <v>0.03109792185352727</v>
+        <v>0.02260297040804777</v>
       </c>
       <c r="I19">
-        <v>0.01883012041827607</v>
+        <v>0.01334252860993027</v>
       </c>
       <c r="J19">
-        <v>0.007060563637270795</v>
+        <v>0.005257426642222974</v>
       </c>
       <c r="K19">
-        <v>0.04490383268346552</v>
+        <v>0.03222692915647839</v>
       </c>
       <c r="L19">
-        <v>0.01168941542426052</v>
+        <v>0.009051192992588044</v>
       </c>
       <c r="M19">
-        <v>0.01105059401368595</v>
+        <v>0.008328926141757046</v>
       </c>
       <c r="N19">
-        <v>0.000120693990077832</v>
+        <v>0.0001297903028572086</v>
       </c>
       <c r="O19">
-        <v>0.0002458302799354827</v>
+        <v>0.0002645785311463981</v>
       </c>
       <c r="P19">
-        <v>7.134261503812149E-05</v>
+        <v>7.421721406216271E-05</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.07659200975847358</v>
+        <v>0.05546936325956816</v>
       </c>
       <c r="C20">
-        <v>0.07814605152778688</v>
+        <v>0.05602515815530996</v>
       </c>
       <c r="D20">
-        <v>0.03111961595465027</v>
+        <v>0.02167902084111746</v>
       </c>
       <c r="E20">
-        <v>0.02325361829874433</v>
+        <v>0.01620923463432279</v>
       </c>
       <c r="F20">
-        <v>0.01017806505556506</v>
+        <v>0.007005578423318289</v>
       </c>
       <c r="G20">
-        <v>0.001433257678478222</v>
+        <v>0.001121298502018211</v>
       </c>
       <c r="H20">
-        <v>0.02658585027175546</v>
+        <v>0.01943543784385672</v>
       </c>
       <c r="I20">
-        <v>0.01610551818580877</v>
+        <v>0.01142500608308126</v>
       </c>
       <c r="J20">
-        <v>0.006030485598393093</v>
+        <v>0.004418551638041642</v>
       </c>
       <c r="K20">
-        <v>0.03832378966972809</v>
+        <v>0.02775073899700995</v>
       </c>
       <c r="L20">
-        <v>0.01011510171638735</v>
+        <v>0.00773361762411331</v>
       </c>
       <c r="M20">
-        <v>0.009569509470391143</v>
+        <v>0.007253451179919273</v>
       </c>
       <c r="N20">
-        <v>0.000122866274078709</v>
+        <v>0.0001306618874498358</v>
       </c>
       <c r="O20">
-        <v>0.0002503530239930902</v>
+        <v>0.0002664205899647668</v>
       </c>
       <c r="P20">
-        <v>7.189940624547979E-05</v>
+        <v>7.438833865528313E-05</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.06269941873227297</v>
+        <v>0.0461717562206055</v>
       </c>
       <c r="C21">
-        <v>0.06425572357048849</v>
+        <v>0.04668252463937052</v>
       </c>
       <c r="D21">
-        <v>0.02563970489120556</v>
+        <v>0.01832508069416585</v>
       </c>
       <c r="E21">
-        <v>0.01915610418052018</v>
+        <v>0.01375014471064353</v>
       </c>
       <c r="F21">
-        <v>0.008417586308256538</v>
+        <v>0.005865695188430679</v>
       </c>
       <c r="G21">
-        <v>0.001187556374778669</v>
+        <v>0.0009395416342019722</v>
       </c>
       <c r="H21">
-        <v>0.02191990482007158</v>
+        <v>0.01608969264976077</v>
       </c>
       <c r="I21">
-        <v>0.01328842504305158</v>
+        <v>0.009405530492985143</v>
       </c>
       <c r="J21">
-        <v>0.004965631572935029</v>
+        <v>0.003543253592598855</v>
       </c>
       <c r="K21">
-        <v>0.03151921593781232</v>
+        <v>0.0230190528941369</v>
       </c>
       <c r="L21">
-        <v>0.008448182293921327</v>
+        <v>0.006505451764356076</v>
       </c>
       <c r="M21">
-        <v>0.008001303049934041</v>
+        <v>0.006101337441589865</v>
       </c>
       <c r="N21">
-        <v>0.0001251240160983629</v>
+        <v>0.0001315769067346648</v>
       </c>
       <c r="O21">
-        <v>0.000255053108533823</v>
+        <v>0.000268357201034298</v>
       </c>
       <c r="P21">
-        <v>7.248646481419685E-05</v>
+        <v>7.456555824106588E-05</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0576859484087503</v>
+        <v>0.04283635329761964</v>
       </c>
       <c r="C22">
-        <v>0.05924051097865713</v>
+        <v>0.04332474723223796</v>
       </c>
       <c r="D22">
-        <v>0.02366042174781535</v>
+        <v>0.01702521368085144</v>
       </c>
       <c r="E22">
-        <v>0.01767630407438708</v>
+        <v>0.01277869259529421</v>
       </c>
       <c r="F22">
-        <v>0.007781815605323403</v>
+        <v>0.005447229275647955</v>
       </c>
       <c r="G22">
-        <v>0.001098834077585363</v>
+        <v>0.0008728288526250813</v>
       </c>
       <c r="H22">
-        <v>0.02023575417855</v>
+        <v>0.01492861490602391</v>
       </c>
       <c r="I22">
-        <v>0.01227169979741439</v>
+        <v>0.008733345573969624</v>
       </c>
       <c r="J22">
-        <v>0.004581380191068052</v>
+        <v>0.003291683737637</v>
       </c>
       <c r="K22">
-        <v>0.02906326416404684</v>
+        <v>0.02135157484791879</v>
       </c>
       <c r="L22">
-        <v>0.007837018800862133</v>
+        <v>0.006051446924408313</v>
       </c>
       <c r="M22">
-        <v>0.007426325415818598</v>
+        <v>0.00567541603351906</v>
       </c>
       <c r="N22">
-        <v>0.00012594162295049</v>
+        <v>0.0001319081040651561</v>
       </c>
       <c r="O22">
-        <v>0.0002567550360178118</v>
+        <v>0.0002690552864875963</v>
       </c>
       <c r="P22">
-        <v>7.270106200100079E-05</v>
+        <v>7.463033844084179E-05</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.05600071750207679</v>
+        <v>0.04151932600828171</v>
       </c>
       <c r="C23">
-        <v>0.0575542734842605</v>
+        <v>0.04200128880498142</v>
       </c>
       <c r="D23">
-        <v>0.02299484152303731</v>
+        <v>0.01639718520111359</v>
       </c>
       <c r="E23">
-        <v>0.01717870780395786</v>
+        <v>0.01226197252051334</v>
       </c>
       <c r="F23">
-        <v>0.007568029134094083</v>
+        <v>0.00530529182333036</v>
       </c>
       <c r="G23">
-        <v>0.001069000990385324</v>
+        <v>0.0008623578689692004</v>
       </c>
       <c r="H23">
-        <v>0.01966954599494162</v>
+        <v>0.01453501718847867</v>
       </c>
       <c r="I23">
-        <v>0.01192988799433355</v>
+        <v>0.00850548297055684</v>
       </c>
       <c r="J23">
-        <v>0.004452209708540246</v>
+        <v>0.003206425358298977</v>
       </c>
       <c r="K23">
-        <v>0.02823761176526141</v>
+        <v>0.02078643613076788</v>
       </c>
       <c r="L23">
-        <v>0.007630431274679122</v>
+        <v>0.005897537198860867</v>
       </c>
       <c r="M23">
-        <v>0.007231967996964424</v>
+        <v>0.005531021635632479</v>
       </c>
       <c r="N23">
-        <v>0.0001262168105501399</v>
+        <v>0.0001320298091769568</v>
       </c>
       <c r="O23">
-        <v>0.0002573278500386473</v>
+        <v>0.0002693085894049995</v>
       </c>
       <c r="P23">
-        <v>7.277352266138073E-05</v>
+        <v>7.465220978660649E-05</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.05186396792999552</v>
+        <v>0.03874242816547296</v>
       </c>
       <c r="C24">
-        <v>0.05341396083563429</v>
+        <v>0.03920152751684906</v>
       </c>
       <c r="D24">
-        <v>0.02136037982162589</v>
+        <v>0.01531299710741558</v>
       </c>
       <c r="E24">
-        <v>0.01595680881548816</v>
+        <v>0.01145181138031588</v>
       </c>
       <c r="F24">
-        <v>0.007043040435592293</v>
+        <v>0.0049560246161683</v>
       </c>
       <c r="G24">
-        <v>0.0009957427730206642</v>
+        <v>0.0008413706904874156</v>
       </c>
       <c r="H24">
-        <v>0.01827937042609757</v>
+        <v>0.01356636655885776</v>
       </c>
       <c r="I24">
-        <v>0.01109067618875187</v>
+        <v>0.007944688875460305</v>
       </c>
       <c r="J24">
-        <v>0.004135098726237082</v>
+        <v>0.002996640860581534</v>
       </c>
       <c r="K24">
-        <v>0.02621054166822224</v>
+        <v>0.01939597167615113</v>
       </c>
       <c r="L24">
-        <v>0.00712084537518957</v>
+        <v>0.005516933751415086</v>
       </c>
       <c r="M24">
-        <v>0.006752545280881357</v>
+        <v>0.005173935291428665</v>
       </c>
       <c r="N24">
-        <v>0.0001268931134634727</v>
+        <v>0.0001323050530298147</v>
       </c>
       <c r="O24">
-        <v>0.0002587355691954332</v>
+        <v>0.0002698888130539327</v>
       </c>
       <c r="P24">
-        <v>7.295209119407257E-05</v>
+        <v>7.470610120474482E-05</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.05002162629371781</v>
+        <v>0.03750068657934943</v>
       </c>
       <c r="C25">
-        <v>0.05156945364306618</v>
+        <v>0.0379484135887082</v>
       </c>
       <c r="D25">
-        <v>0.02063211683063282</v>
+        <v>0.01482759967991943</v>
       </c>
       <c r="E25">
-        <v>0.01541239134612599</v>
+        <v>0.01108910814397772</v>
       </c>
       <c r="F25">
-        <v>0.006809121975570014</v>
+        <v>0.004799611532690029</v>
       </c>
       <c r="G25">
-        <v>0.000963102055834849</v>
+        <v>0.0008330523262944234</v>
       </c>
       <c r="H25">
-        <v>0.01766006731853419</v>
+        <v>0.01313268130466292</v>
       </c>
       <c r="I25">
-        <v>0.01071682647497735</v>
+        <v>0.007693605535342338</v>
       </c>
       <c r="J25">
-        <v>0.003993846865977633</v>
+        <v>0.002902740001194559</v>
       </c>
       <c r="K25">
-        <v>0.02530757044026932</v>
+        <v>0.0187736107002193</v>
       </c>
       <c r="L25">
-        <v>0.006892755416179567</v>
+        <v>0.005346136865454926</v>
       </c>
       <c r="M25">
-        <v>0.0065379536957178</v>
+        <v>0.005013684665603969</v>
       </c>
       <c r="N25">
-        <v>0.0001271946924483605</v>
+        <v>0.0001324280688685923</v>
       </c>
       <c r="O25">
-        <v>0.0002593632889348694</v>
+        <v>0.0002701481491234375</v>
       </c>
       <c r="P25">
-        <v>7.303194039048282E-05</v>
+        <v>7.473019531846171E-05</v>
       </c>
     </row>
   </sheetData>
